--- a/database/seeders/_danh_muc_se_eder.xlsx
+++ b/database/seeders/_danh_muc_se_eder.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="748">
   <si>
     <t>anhdaidien</t>
   </si>
@@ -1717,7 +1717,568 @@
     <t>03666959576</t>
   </si>
   <si>
-    <t>m sua cai nao. Dang sua cai nay</t>
+    <t>Nguyễn Đình</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức</t>
+  </si>
+  <si>
+    <t>Vũ Hoàng</t>
+  </si>
+  <si>
+    <t>Bùi Đức</t>
+  </si>
+  <si>
+    <t>Phạm Công Phúc</t>
+  </si>
+  <si>
+    <t>Nguyễn Bỉnh</t>
+  </si>
+  <si>
+    <t>Nguyễn Trung</t>
+  </si>
+  <si>
+    <t>Trần Quang</t>
+  </si>
+  <si>
+    <t>Phạm Việt</t>
+  </si>
+  <si>
+    <t>Lương Xuân</t>
+  </si>
+  <si>
+    <t>Triệu Đình</t>
+  </si>
+  <si>
+    <t>Lê Đình</t>
+  </si>
+  <si>
+    <t>Vũ Hiền</t>
+  </si>
+  <si>
+    <t>Phạm Phương</t>
+  </si>
+  <si>
+    <t>Lê Đức</t>
+  </si>
+  <si>
+    <t>Trần Thành</t>
+  </si>
+  <si>
+    <t>Lương Văn</t>
+  </si>
+  <si>
+    <t>Phạm Minh</t>
+  </si>
+  <si>
+    <t>Hoàng Việt</t>
+  </si>
+  <si>
+    <t>Nguyễn Đăng</t>
+  </si>
+  <si>
+    <t>Nguyễn Thế</t>
+  </si>
+  <si>
+    <t>Vũ Chiến</t>
+  </si>
+  <si>
+    <t>Nguyễn Tiến</t>
+  </si>
+  <si>
+    <t>Cao Bá</t>
+  </si>
+  <si>
+    <t>Lê Thành</t>
+  </si>
+  <si>
+    <t>Nguyễn Thành</t>
+  </si>
+  <si>
+    <t>Bùi Văn</t>
+  </si>
+  <si>
+    <t>Nguyễn Xuân</t>
+  </si>
+  <si>
+    <t>Lương Anh</t>
+  </si>
+  <si>
+    <t>Phan Công</t>
+  </si>
+  <si>
+    <t>Đồng Đức</t>
+  </si>
+  <si>
+    <t>Nguyễn Tự</t>
+  </si>
+  <si>
+    <t>Dương Xuân</t>
+  </si>
+  <si>
+    <t>Chiến</t>
+  </si>
+  <si>
+    <t>Đạo</t>
+  </si>
+  <si>
+    <t>Đô</t>
+  </si>
+  <si>
+    <t>Hoàng</t>
+  </si>
+  <si>
+    <t>Hưng</t>
+  </si>
+  <si>
+    <t>Lưu</t>
+  </si>
+  <si>
+    <t>Nghĩa</t>
+  </si>
+  <si>
+    <t>Thiên</t>
+  </si>
+  <si>
+    <t>Trung</t>
+  </si>
+  <si>
+    <t>Trường</t>
+  </si>
+  <si>
+    <t>Tuấn</t>
+  </si>
+  <si>
+    <t>Tuệ</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>Việt</t>
+  </si>
+  <si>
+    <t>Vũ</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>031444346</t>
+  </si>
+  <si>
+    <t>031444347</t>
+  </si>
+  <si>
+    <t>031444348</t>
+  </si>
+  <si>
+    <t>031444349</t>
+  </si>
+  <si>
+    <t>031444350</t>
+  </si>
+  <si>
+    <t>031444351</t>
+  </si>
+  <si>
+    <t>031444352</t>
+  </si>
+  <si>
+    <t>031444353</t>
+  </si>
+  <si>
+    <t>031444354</t>
+  </si>
+  <si>
+    <t>031444355</t>
+  </si>
+  <si>
+    <t>031444356</t>
+  </si>
+  <si>
+    <t>031444357</t>
+  </si>
+  <si>
+    <t>031444358</t>
+  </si>
+  <si>
+    <t>031444359</t>
+  </si>
+  <si>
+    <t>031444360</t>
+  </si>
+  <si>
+    <t>031444361</t>
+  </si>
+  <si>
+    <t>031444362</t>
+  </si>
+  <si>
+    <t>031444363</t>
+  </si>
+  <si>
+    <t>031444364</t>
+  </si>
+  <si>
+    <t>031444365</t>
+  </si>
+  <si>
+    <t>031444366</t>
+  </si>
+  <si>
+    <t>031444367</t>
+  </si>
+  <si>
+    <t>031444368</t>
+  </si>
+  <si>
+    <t>031444369</t>
+  </si>
+  <si>
+    <t>031444370</t>
+  </si>
+  <si>
+    <t>031444371</t>
+  </si>
+  <si>
+    <t>031444372</t>
+  </si>
+  <si>
+    <t>031444373</t>
+  </si>
+  <si>
+    <t>031444374</t>
+  </si>
+  <si>
+    <t>031444375</t>
+  </si>
+  <si>
+    <t>031444376</t>
+  </si>
+  <si>
+    <t>031444377</t>
+  </si>
+  <si>
+    <t>031444378</t>
+  </si>
+  <si>
+    <t>031444379</t>
+  </si>
+  <si>
+    <t>031444380</t>
+  </si>
+  <si>
+    <t>031444381</t>
+  </si>
+  <si>
+    <t>Chu Thị Mai Anh</t>
+  </si>
+  <si>
+    <t>Phạm Lương Bằng</t>
+  </si>
+  <si>
+    <t>Bùi Thị Chang</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Minh Chi</t>
+  </si>
+  <si>
+    <t>Phạm Quang Cường</t>
+  </si>
+  <si>
+    <t>Đào Văn Dũng</t>
+  </si>
+  <si>
+    <t>Hoàng Đức Dũng</t>
+  </si>
+  <si>
+    <t>Nguyễn Quang Dũng</t>
+  </si>
+  <si>
+    <t>Dư Đình Dương</t>
+  </si>
+  <si>
+    <t>Ninh Hải Dương</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Duyên</t>
+  </si>
+  <si>
+    <t>Lưu Quốc Đạt</t>
+  </si>
+  <si>
+    <t>Đặng Lợi Đức</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Giang</t>
+  </si>
+  <si>
+    <t>Phạm Trường Giang</t>
+  </si>
+  <si>
+    <t>Ngô Thanh Hải</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Hải</t>
+  </si>
+  <si>
+    <t>Phạm Nguyễn Thanh Hải</t>
+  </si>
+  <si>
+    <t>Vũ Thị Minh Hằng</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thảo Hiền</t>
+  </si>
+  <si>
+    <t>Đàm Văn Tuấn Hiệp</t>
+  </si>
+  <si>
+    <t>Đỗ Hoàng Hiệp</t>
+  </si>
+  <si>
+    <t>Đỗ Minh Hiếu</t>
+  </si>
+  <si>
+    <t>Hoàng Minh Hiếu</t>
+  </si>
+  <si>
+    <t>Lã Đắc Hiếu</t>
+  </si>
+  <si>
+    <t>Phạm Minh Hiếu</t>
+  </si>
+  <si>
+    <t>Vũ Thế Hoài</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Hoan</t>
+  </si>
+  <si>
+    <t>Đoàn Đức Hoàng</t>
+  </si>
+  <si>
+    <t>Vũ Minh Hoàng</t>
+  </si>
+  <si>
+    <t>Lê Thị Minh Hoạt</t>
+  </si>
+  <si>
+    <t>Trần Thị Hồng</t>
+  </si>
+  <si>
+    <t>Nguyễn Việt Hưng</t>
+  </si>
+  <si>
+    <t>Lê Đức Huy</t>
+  </si>
+  <si>
+    <t>Nguyễn Quang Huy</t>
+  </si>
+  <si>
+    <t>Khúc Văn Khánh</t>
+  </si>
+  <si>
+    <t>0902489121</t>
+  </si>
+  <si>
+    <t>0902489122</t>
+  </si>
+  <si>
+    <t>0902489123</t>
+  </si>
+  <si>
+    <t>0902489124</t>
+  </si>
+  <si>
+    <t>0902489125</t>
+  </si>
+  <si>
+    <t>0902489126</t>
+  </si>
+  <si>
+    <t>0902489127</t>
+  </si>
+  <si>
+    <t>0902489128</t>
+  </si>
+  <si>
+    <t>0902489129</t>
+  </si>
+  <si>
+    <t>0902489130</t>
+  </si>
+  <si>
+    <t>0902489131</t>
+  </si>
+  <si>
+    <t>0902489132</t>
+  </si>
+  <si>
+    <t>0902489133</t>
+  </si>
+  <si>
+    <t>0902489134</t>
+  </si>
+  <si>
+    <t>0902489135</t>
+  </si>
+  <si>
+    <t>0902489136</t>
+  </si>
+  <si>
+    <t>0902489137</t>
+  </si>
+  <si>
+    <t>0902489138</t>
+  </si>
+  <si>
+    <t>0902489139</t>
+  </si>
+  <si>
+    <t>0902489140</t>
+  </si>
+  <si>
+    <t>0902489141</t>
+  </si>
+  <si>
+    <t>0902489142</t>
+  </si>
+  <si>
+    <t>0902489143</t>
+  </si>
+  <si>
+    <t>0902489144</t>
+  </si>
+  <si>
+    <t>0902489145</t>
+  </si>
+  <si>
+    <t>0902489146</t>
+  </si>
+  <si>
+    <t>0902489147</t>
+  </si>
+  <si>
+    <t>0902489148</t>
+  </si>
+  <si>
+    <t>0902489149</t>
+  </si>
+  <si>
+    <t>0902489150</t>
+  </si>
+  <si>
+    <t>0902489151</t>
+  </si>
+  <si>
+    <t>0902489152</t>
+  </si>
+  <si>
+    <t>0902489153</t>
+  </si>
+  <si>
+    <t>0902489154</t>
+  </si>
+  <si>
+    <t>0902489155</t>
+  </si>
+  <si>
+    <t>0902489156</t>
+  </si>
+  <si>
+    <t>hocsinh29</t>
+  </si>
+  <si>
+    <t>hocsinh30</t>
+  </si>
+  <si>
+    <t>hocsinh31</t>
+  </si>
+  <si>
+    <t>hocsinh32</t>
+  </si>
+  <si>
+    <t>hocsinh33</t>
+  </si>
+  <si>
+    <t>hocsinh34</t>
+  </si>
+  <si>
+    <t>hocsinh35</t>
+  </si>
+  <si>
+    <t>hocsinh36</t>
+  </si>
+  <si>
+    <t>hocsinh37</t>
+  </si>
+  <si>
+    <t>hocsinh38</t>
+  </si>
+  <si>
+    <t>hocsinh39</t>
+  </si>
+  <si>
+    <t>hocsinh40</t>
+  </si>
+  <si>
+    <t>hocsinh41</t>
+  </si>
+  <si>
+    <t>hocsinh42</t>
+  </si>
+  <si>
+    <t>hocsinh43</t>
+  </si>
+  <si>
+    <t>hocsinh44</t>
+  </si>
+  <si>
+    <t>hocsinh45</t>
+  </si>
+  <si>
+    <t>hocsinh46</t>
+  </si>
+  <si>
+    <t>hocsinh47</t>
+  </si>
+  <si>
+    <t>hocsinh48</t>
+  </si>
+  <si>
+    <t>hocsinh49</t>
+  </si>
+  <si>
+    <t>hocsinh50</t>
+  </si>
+  <si>
+    <t>hocsinh51</t>
+  </si>
+  <si>
+    <t>hocsinh52</t>
+  </si>
+  <si>
+    <t>hocsinh53</t>
+  </si>
+  <si>
+    <t>hocsinh54</t>
+  </si>
+  <si>
+    <t>hocsinh55</t>
+  </si>
+  <si>
+    <t>hocsinh56</t>
+  </si>
+  <si>
+    <t>hocsinh57</t>
+  </si>
+  <si>
+    <t>hocsinh58</t>
+  </si>
+  <si>
+    <t>hocsinh59</t>
   </si>
 </sst>
 </file>
@@ -1860,7 +2421,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1912,9 +2473,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="17" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2292,17 +2850,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="21" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="20" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="21" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="20" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.33203125" customWidth="1"/>
     <col min="9" max="9" width="17.5546875" customWidth="1"/>
     <col min="10" max="10" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
@@ -2311,13 +2869,13 @@
       <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>15</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>43</v>
       </c>
       <c r="G1" t="s">
@@ -2337,7 +2895,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>288</v>
       </c>
       <c r="B2" t="s">
@@ -2346,16 +2904,16 @@
       <c r="C2" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>193</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="19" t="s">
         <v>191</v>
       </c>
       <c r="H2" t="s">
@@ -2372,7 +2930,7 @@
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>289</v>
       </c>
       <c r="B3" t="s">
@@ -2381,16 +2939,16 @@
       <c r="C3" t="s">
         <v>286</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>194</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>287</v>
       </c>
       <c r="H3" t="s">
@@ -2407,7 +2965,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>293</v>
       </c>
       <c r="B4" t="s">
@@ -2416,16 +2974,16 @@
       <c r="C4" t="s">
         <v>296</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>290</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="19" t="s">
         <v>295</v>
       </c>
       <c r="H4" t="s">
@@ -2442,7 +3000,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>484</v>
       </c>
       <c r="B5" t="s">
@@ -2451,16 +3009,16 @@
       <c r="C5" t="s">
         <v>486</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="20" t="s">
         <v>487</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="20" t="s">
         <v>488</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="19" t="s">
         <v>489</v>
       </c>
       <c r="H5" t="s">
@@ -2477,7 +3035,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>492</v>
       </c>
       <c r="B6" t="s">
@@ -2486,16 +3044,16 @@
       <c r="C6" t="s">
         <v>68</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>493</v>
       </c>
       <c r="E6" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>494</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="19" t="s">
         <v>495</v>
       </c>
       <c r="H6" t="s">
@@ -3504,7 +4062,7 @@
       <c r="A61" t="s">
         <v>365</v>
       </c>
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="23" t="s">
         <v>436</v>
       </c>
       <c r="C61">
@@ -3515,7 +4073,7 @@
       <c r="A62" t="s">
         <v>366</v>
       </c>
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="23" t="s">
         <v>437</v>
       </c>
       <c r="C62">
@@ -3526,7 +4084,7 @@
       <c r="A63" t="s">
         <v>367</v>
       </c>
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="23" t="s">
         <v>438</v>
       </c>
       <c r="C63">
@@ -3537,7 +4095,7 @@
       <c r="A64" t="s">
         <v>368</v>
       </c>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="23" t="s">
         <v>439</v>
       </c>
       <c r="C64">
@@ -3548,7 +4106,7 @@
       <c r="A65" t="s">
         <v>369</v>
       </c>
-      <c r="B65" s="24" t="s">
+      <c r="B65" s="23" t="s">
         <v>440</v>
       </c>
       <c r="C65">
@@ -3559,7 +4117,7 @@
       <c r="A66" t="s">
         <v>370</v>
       </c>
-      <c r="B66" s="24" t="s">
+      <c r="B66" s="23" t="s">
         <v>441</v>
       </c>
       <c r="C66">
@@ -3570,7 +4128,7 @@
       <c r="A67" t="s">
         <v>371</v>
       </c>
-      <c r="B67" s="24" t="s">
+      <c r="B67" s="23" t="s">
         <v>442</v>
       </c>
       <c r="C67">
@@ -3581,7 +4139,7 @@
       <c r="A68" t="s">
         <v>372</v>
       </c>
-      <c r="B68" s="24" t="s">
+      <c r="B68" s="23" t="s">
         <v>443</v>
       </c>
       <c r="C68">
@@ -3592,7 +4150,7 @@
       <c r="A69" t="s">
         <v>373</v>
       </c>
-      <c r="B69" s="24" t="s">
+      <c r="B69" s="23" t="s">
         <v>444</v>
       </c>
       <c r="C69">
@@ -3603,7 +4161,7 @@
       <c r="A70" t="s">
         <v>374</v>
       </c>
-      <c r="B70" s="24" t="s">
+      <c r="B70" s="23" t="s">
         <v>445</v>
       </c>
       <c r="C70">
@@ -3614,7 +4172,7 @@
       <c r="A71" t="s">
         <v>375</v>
       </c>
-      <c r="B71" s="24" t="s">
+      <c r="B71" s="23" t="s">
         <v>446</v>
       </c>
       <c r="C71">
@@ -3625,7 +4183,7 @@
       <c r="A72" t="s">
         <v>376</v>
       </c>
-      <c r="B72" s="24" t="s">
+      <c r="B72" s="23" t="s">
         <v>447</v>
       </c>
       <c r="C72">
@@ -3636,7 +4194,7 @@
       <c r="A73" t="s">
         <v>377</v>
       </c>
-      <c r="B73" s="24" t="s">
+      <c r="B73" s="23" t="s">
         <v>448</v>
       </c>
       <c r="C73">
@@ -3647,7 +4205,7 @@
       <c r="A74" t="s">
         <v>378</v>
       </c>
-      <c r="B74" s="24" t="s">
+      <c r="B74" s="23" t="s">
         <v>449</v>
       </c>
       <c r="C74">
@@ -3658,7 +4216,7 @@
       <c r="A75" t="s">
         <v>379</v>
       </c>
-      <c r="B75" s="24" t="s">
+      <c r="B75" s="23" t="s">
         <v>450</v>
       </c>
       <c r="C75">
@@ -3669,7 +4227,7 @@
       <c r="A76" t="s">
         <v>380</v>
       </c>
-      <c r="B76" s="24" t="s">
+      <c r="B76" s="23" t="s">
         <v>451</v>
       </c>
       <c r="C76">
@@ -3680,7 +4238,7 @@
       <c r="A77" t="s">
         <v>381</v>
       </c>
-      <c r="B77" s="24" t="s">
+      <c r="B77" s="23" t="s">
         <v>452</v>
       </c>
       <c r="C77">
@@ -3691,7 +4249,7 @@
       <c r="A78" t="s">
         <v>382</v>
       </c>
-      <c r="B78" s="24" t="s">
+      <c r="B78" s="23" t="s">
         <v>453</v>
       </c>
       <c r="C78">
@@ -3702,7 +4260,7 @@
       <c r="A79" t="s">
         <v>383</v>
       </c>
-      <c r="B79" s="24" t="s">
+      <c r="B79" s="23" t="s">
         <v>454</v>
       </c>
       <c r="C79">
@@ -3713,7 +4271,7 @@
       <c r="A80" t="s">
         <v>384</v>
       </c>
-      <c r="B80" s="24" t="s">
+      <c r="B80" s="23" t="s">
         <v>455</v>
       </c>
       <c r="C80">
@@ -3724,7 +4282,7 @@
       <c r="A81" t="s">
         <v>385</v>
       </c>
-      <c r="B81" s="24" t="s">
+      <c r="B81" s="23" t="s">
         <v>456</v>
       </c>
       <c r="C81">
@@ -3735,7 +4293,7 @@
       <c r="A82" t="s">
         <v>386</v>
       </c>
-      <c r="B82" s="24" t="s">
+      <c r="B82" s="23" t="s">
         <v>457</v>
       </c>
       <c r="C82">
@@ -3746,7 +4304,7 @@
       <c r="A83" t="s">
         <v>387</v>
       </c>
-      <c r="B83" s="24" t="s">
+      <c r="B83" s="23" t="s">
         <v>458</v>
       </c>
       <c r="C83">
@@ -3757,7 +4315,7 @@
       <c r="A84" t="s">
         <v>388</v>
       </c>
-      <c r="B84" s="24" t="s">
+      <c r="B84" s="23" t="s">
         <v>459</v>
       </c>
       <c r="C84">
@@ -5433,15 +5991,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="57.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="53.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="84.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" style="1" customWidth="1"/>
@@ -5467,7 +6025,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>208</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -5484,7 +6042,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>210</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -5501,7 +6059,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>209</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -5518,7 +6076,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>281</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -5535,7 +6093,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>211</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -5552,7 +6110,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>255</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -5569,7 +6127,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>256</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -5586,7 +6144,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>257</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -5603,7 +6161,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>258</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -5620,7 +6178,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="22" t="s">
         <v>259</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -5637,7 +6195,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="22" t="s">
         <v>260</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -5654,7 +6212,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>261</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -5671,7 +6229,7 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="22" t="s">
         <v>262</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -5688,7 +6246,7 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="22" t="s">
         <v>263</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -5705,7 +6263,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="22" t="s">
         <v>264</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -5722,7 +6280,7 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>265</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -5739,7 +6297,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="21" t="s">
         <v>266</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -5756,7 +6314,7 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="22" t="s">
         <v>267</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -5773,7 +6331,7 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="22" t="s">
         <v>268</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -5790,7 +6348,7 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="22" t="s">
         <v>269</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -5807,7 +6365,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="22" t="s">
         <v>270</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -5824,7 +6382,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="22" t="s">
         <v>271</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -5841,7 +6399,7 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="22" t="s">
         <v>272</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -5858,7 +6416,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="22" t="s">
         <v>240</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -5875,7 +6433,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="22" t="s">
         <v>241</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -5892,7 +6450,7 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="22" t="s">
         <v>242</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -5909,7 +6467,7 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="22" t="s">
         <v>273</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -5926,7 +6484,7 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="22" t="s">
         <v>274</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -5943,7 +6501,7 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="22" t="s">
         <v>275</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -5960,7 +6518,7 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="22" t="s">
         <v>276</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -5977,7 +6535,7 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="22" t="s">
         <v>277</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -5994,7 +6552,7 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="22" t="s">
         <v>278</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -6011,7 +6569,7 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="21" t="s">
         <v>279</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -6028,7 +6586,7 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="22" t="s">
         <v>280</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -6045,7 +6603,7 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="22" t="s">
         <v>490</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -6058,6 +6616,533 @@
         <v>2</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="22" t="s">
+        <v>490</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="22" t="s">
+        <v>490</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="22" t="s">
+        <v>490</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="1">
+        <v>2</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="1">
+        <v>2</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="1">
+        <v>2</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="1">
+        <v>2</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="1">
+        <v>2</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="1">
+        <v>2</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="1">
+        <v>2</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="1">
+        <v>2</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="1">
+        <v>2</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="1">
+        <v>2</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="1">
+        <v>2</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="1">
+        <v>2</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="1">
+        <v>2</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="1">
+        <v>2</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>192</v>
       </c>
     </row>
@@ -6066,9 +7151,13 @@
     <hyperlink ref="A13" r:id="rId1"/>
     <hyperlink ref="A18" r:id="rId2"/>
     <hyperlink ref="A34" r:id="rId3"/>
+    <hyperlink ref="A46" r:id="rId4"/>
+    <hyperlink ref="A53" r:id="rId5"/>
+    <hyperlink ref="A60" r:id="rId6"/>
+    <hyperlink ref="A67" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -6076,8 +7165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -6971,472 +8060,1479 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.6">
-      <c r="A26" s="10"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="16"/>
-      <c r="I26" s="14"/>
+      <c r="A26" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>645</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>681</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" s="2">
+        <v>31</v>
+      </c>
     </row>
     <row r="27" spans="1:11" ht="15.6">
-      <c r="A27" s="10"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="16"/>
-      <c r="I27" s="14"/>
+      <c r="A27" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>646</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>682</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27" s="2">
+        <v>32</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="15.6">
-      <c r="A28" s="10"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="16"/>
-      <c r="I28" s="14"/>
+      <c r="A28" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>647</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K28" s="2">
+        <v>33</v>
+      </c>
     </row>
     <row r="29" spans="1:11" ht="15.6">
-      <c r="A29" s="10"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="16"/>
-      <c r="I29" s="14"/>
+      <c r="A29" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>648</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>684</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K29" s="2">
+        <v>34</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="15.6">
-      <c r="A30" s="10"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="16"/>
-      <c r="I30" s="14"/>
+      <c r="A30" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="G30" s="16" t="s">
+        <v>649</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30" s="2">
+        <v>35</v>
+      </c>
     </row>
     <row r="31" spans="1:11" ht="15.6">
-      <c r="A31" s="10"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="16"/>
-      <c r="I31" s="14"/>
+      <c r="A31" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>650</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>686</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31" s="2">
+        <v>36</v>
+      </c>
     </row>
     <row r="32" spans="1:11" ht="15.6">
-      <c r="A32" s="10"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="16"/>
-      <c r="I32" s="14"/>
-    </row>
-    <row r="33" spans="1:9" ht="15.6">
-      <c r="A33" s="10"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="16"/>
-      <c r="I33" s="14"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.6">
-      <c r="A34" s="10"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="16"/>
-      <c r="I34" s="14"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.6">
-      <c r="A35" s="10"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="16"/>
-      <c r="I35" s="14"/>
-    </row>
-    <row r="36" spans="1:9" ht="15.6">
-      <c r="A36" s="10"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="16"/>
-      <c r="I36" s="14"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.6">
-      <c r="A37" s="10"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="16"/>
-      <c r="I37" s="14"/>
-    </row>
-    <row r="38" spans="1:9" ht="15.6">
-      <c r="A38" s="10"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="16"/>
-      <c r="I38" s="14"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.6">
-      <c r="A39" s="10"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="16"/>
-      <c r="I39" s="14"/>
-    </row>
-    <row r="40" spans="1:9" ht="15.6">
-      <c r="A40" s="10"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="16"/>
-      <c r="I40" s="14"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.6">
-      <c r="A41" s="10"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="16"/>
-      <c r="I41" s="14"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.6">
-      <c r="A42" s="10"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="2"/>
-      <c r="I42" s="14"/>
-    </row>
-    <row r="43" spans="1:9" ht="15.6">
-      <c r="A43" s="10"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="2"/>
-      <c r="I43" s="14"/>
-    </row>
-    <row r="44" spans="1:9" ht="15.6">
-      <c r="A44" s="10"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="2"/>
-      <c r="I44" s="14"/>
-    </row>
-    <row r="45" spans="1:9" ht="15.6">
-      <c r="A45" s="10"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="2"/>
-      <c r="I45" s="14"/>
-    </row>
-    <row r="46" spans="1:9" ht="15.6">
-      <c r="A46" s="10"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="2"/>
-      <c r="I46" s="14"/>
-    </row>
-    <row r="47" spans="1:9" ht="15.6">
-      <c r="A47" s="10"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="2"/>
-      <c r="I47" s="14"/>
-    </row>
-    <row r="50" spans="3:7" ht="15.6">
-      <c r="C50" s="18"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="3:7" ht="15.6">
-      <c r="C51" s="19"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-    </row>
-    <row r="52" spans="3:7" ht="15.6">
-      <c r="C52" s="19"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-    </row>
-    <row r="53" spans="3:7" ht="15.6">
-      <c r="C53" s="19"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-    </row>
-    <row r="54" spans="3:7" ht="15.6">
-      <c r="C54" s="19"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-    </row>
-    <row r="55" spans="3:7" ht="15.6">
-      <c r="C55" s="19"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-    </row>
-    <row r="56" spans="3:7" ht="15.6">
-      <c r="C56" s="19"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-    </row>
-    <row r="57" spans="3:7" ht="15.6">
-      <c r="C57" s="19"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-    </row>
-    <row r="58" spans="3:7" ht="15.6">
-      <c r="C58" s="19"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-    </row>
-    <row r="59" spans="3:7" ht="15.6">
-      <c r="C59" s="19"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-    </row>
-    <row r="60" spans="3:7" ht="15.6">
-      <c r="C60" s="19"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-    </row>
-    <row r="61" spans="3:7" ht="15.6">
-      <c r="C61" s="19"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-    </row>
-    <row r="62" spans="3:7" ht="15.6">
-      <c r="C62" s="19"/>
+      <c r="A32" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>651</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>687</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.6">
+      <c r="A33" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>652</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>688</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K33" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.6">
+      <c r="A34" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>653</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>689</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K34" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.6">
+      <c r="A35" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>654</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>690</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K35" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.6">
+      <c r="A36" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>655</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>691</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K36" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.6">
+      <c r="A37" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>656</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>692</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K37" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.6">
+      <c r="A38" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>657</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K38" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15.6">
+      <c r="A39" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>658</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>694</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K39" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.6">
+      <c r="A40" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>659</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I40" s="14" t="s">
+        <v>695</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K40" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.6">
+      <c r="A41" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>660</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>696</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K41" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15.6">
+      <c r="A42" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>697</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K42" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15.6">
+      <c r="A43" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>698</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K43" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15.6">
+      <c r="A44" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K44" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15.6">
+      <c r="A45" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I45" s="14" t="s">
+        <v>700</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K45" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15.6">
+      <c r="A46" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>701</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K46" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15.6">
+      <c r="A47" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I47" s="14" t="s">
+        <v>702</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K47" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15.6">
+      <c r="A48" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I48" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K48" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="15.6">
+      <c r="A49" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I49" s="14" t="s">
+        <v>704</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K49" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="15.6">
+      <c r="A50" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K50" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15.6">
+      <c r="A51" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>706</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K51" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="15.6">
+      <c r="A52" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>707</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K52" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="15.6">
+      <c r="A53" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>708</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K53" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="15.6">
+      <c r="A54" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K54" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="15.6">
+      <c r="A55" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I55" s="14" t="s">
+        <v>710</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K55" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="15.6">
+      <c r="A56" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I56" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K56" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="15.6">
+      <c r="A57" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I57" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K57" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="15.6">
+      <c r="A58" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I58" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K58" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="15.6">
+      <c r="A59" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I59" s="14" t="s">
+        <v>714</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K59" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="15.6">
+      <c r="A60" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I60" s="14" t="s">
+        <v>715</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K60" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="15.6">
+      <c r="A61" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I61" s="14" t="s">
+        <v>716</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K61" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="15.6">
+      <c r="C62" s="12"/>
       <c r="D62" s="11"/>
       <c r="E62" s="4"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
     </row>
-    <row r="63" spans="3:7" ht="15.6">
-      <c r="C63" s="19"/>
+    <row r="63" spans="1:11" ht="15.6">
+      <c r="C63" s="12"/>
       <c r="D63" s="11"/>
       <c r="E63" s="4"/>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
     </row>
-    <row r="64" spans="3:7" ht="15.6">
-      <c r="C64" s="19"/>
+    <row r="64" spans="1:11" ht="15.6">
+      <c r="C64" s="12"/>
       <c r="D64" s="11"/>
       <c r="E64" s="4"/>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
     </row>
     <row r="65" spans="3:7" ht="15.6">
-      <c r="C65" s="19"/>
+      <c r="C65" s="12"/>
       <c r="D65" s="11"/>
       <c r="E65" s="6"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
     </row>
     <row r="66" spans="3:7" ht="15.6">
-      <c r="C66" s="19"/>
+      <c r="C66" s="12"/>
       <c r="D66" s="11"/>
       <c r="E66" s="4"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
     </row>
     <row r="67" spans="3:7" ht="15.6">
-      <c r="C67" s="19"/>
+      <c r="C67" s="12"/>
       <c r="D67" s="11"/>
       <c r="E67" s="4"/>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
     </row>
     <row r="68" spans="3:7" ht="15.6">
-      <c r="C68" s="18"/>
+      <c r="C68" s="12"/>
       <c r="D68" s="8"/>
       <c r="E68" s="4"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
     </row>
     <row r="69" spans="3:7" ht="15.6">
-      <c r="C69" s="19"/>
+      <c r="C69" s="12"/>
       <c r="D69" s="11"/>
       <c r="E69" s="4"/>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
     </row>
     <row r="70" spans="3:7" ht="15.6">
-      <c r="C70" s="19"/>
+      <c r="C70" s="12"/>
       <c r="D70" s="11"/>
       <c r="E70" s="4"/>
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
     </row>
     <row r="71" spans="3:7" ht="15.6">
-      <c r="C71" s="19"/>
+      <c r="C71" s="12"/>
       <c r="D71" s="11"/>
       <c r="E71" s="4"/>
       <c r="F71" s="9"/>
       <c r="G71" s="9"/>
     </row>
     <row r="72" spans="3:7" ht="15.6">
-      <c r="C72" s="19"/>
+      <c r="C72" s="12"/>
       <c r="D72" s="11"/>
       <c r="E72" s="4"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
     </row>
     <row r="73" spans="3:7" ht="15.6">
-      <c r="C73" s="19"/>
+      <c r="C73" s="12"/>
       <c r="D73" s="11"/>
       <c r="E73" s="6"/>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
     </row>
     <row r="74" spans="3:7" ht="15.6">
-      <c r="C74" s="19"/>
+      <c r="C74" s="18"/>
       <c r="D74" s="11"/>
       <c r="E74" s="6"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
     </row>
     <row r="75" spans="3:7" ht="15.6">
-      <c r="C75" s="19"/>
+      <c r="C75" s="18"/>
       <c r="D75" s="11"/>
       <c r="E75" s="4"/>
       <c r="F75" s="9"/>
       <c r="G75" s="9"/>
     </row>
     <row r="76" spans="3:7" ht="15.6">
-      <c r="C76" s="19"/>
+      <c r="C76" s="18"/>
       <c r="D76" s="11"/>
       <c r="E76" s="4"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
     </row>
     <row r="77" spans="3:7" ht="15.6">
-      <c r="C77" s="19"/>
+      <c r="C77" s="18"/>
       <c r="D77" s="11"/>
       <c r="E77" s="4"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
     </row>
     <row r="78" spans="3:7" ht="15.6">
-      <c r="C78" s="19"/>
+      <c r="C78" s="18"/>
       <c r="D78" s="11"/>
       <c r="E78" s="4"/>
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
     </row>
     <row r="79" spans="3:7" ht="15.6">
-      <c r="C79" s="19"/>
+      <c r="C79" s="18"/>
       <c r="D79" s="11"/>
       <c r="E79" s="4"/>
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
     </row>
     <row r="80" spans="3:7" ht="15.6">
-      <c r="C80" s="19"/>
+      <c r="C80" s="18"/>
       <c r="D80" s="11"/>
       <c r="E80" s="4"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
     </row>
     <row r="81" spans="3:7" ht="15.6">
-      <c r="C81" s="19"/>
+      <c r="C81" s="18"/>
       <c r="D81" s="11"/>
       <c r="E81" s="4"/>
       <c r="F81" s="9"/>
       <c r="G81" s="9"/>
     </row>
     <row r="82" spans="3:7" ht="15.6">
-      <c r="C82" s="19"/>
+      <c r="C82" s="18"/>
       <c r="D82" s="11"/>
       <c r="E82" s="6"/>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
     </row>
     <row r="83" spans="3:7" ht="15.6">
-      <c r="C83" s="19"/>
+      <c r="C83" s="18"/>
       <c r="D83" s="11"/>
       <c r="E83" s="4"/>
       <c r="F83" s="9"/>
       <c r="G83" s="9"/>
     </row>
     <row r="84" spans="3:7" ht="15.6">
-      <c r="C84" s="19"/>
+      <c r="C84" s="18"/>
       <c r="D84" s="11"/>
       <c r="E84" s="6"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
     </row>
     <row r="85" spans="3:7" ht="15.6">
-      <c r="C85" s="19"/>
+      <c r="C85" s="18"/>
       <c r="D85" s="11"/>
       <c r="E85" s="4"/>
       <c r="F85" s="9"/>
       <c r="G85" s="9"/>
     </row>
     <row r="86" spans="3:7" ht="15.6">
-      <c r="C86" s="19"/>
+      <c r="C86" s="18"/>
       <c r="D86" s="11"/>
       <c r="E86" s="4"/>
       <c r="F86" s="9"/>
       <c r="G86" s="9"/>
     </row>
     <row r="87" spans="3:7" ht="15.6">
-      <c r="C87" s="19"/>
+      <c r="C87" s="18"/>
       <c r="D87" s="11"/>
       <c r="E87" s="4"/>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
     </row>
     <row r="88" spans="3:7" ht="15.6">
-      <c r="C88" s="19"/>
+      <c r="C88" s="18"/>
       <c r="D88" s="11"/>
       <c r="E88" s="4"/>
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="3:7" ht="15.6">
-      <c r="C89" s="19"/>
+      <c r="C89" s="18"/>
       <c r="D89" s="11"/>
     </row>
     <row r="90" spans="3:7" ht="15.6">
-      <c r="C90" s="19"/>
+      <c r="C90" s="18"/>
       <c r="D90" s="11"/>
     </row>
     <row r="91" spans="3:7" ht="15.6">
-      <c r="C91" s="19"/>
+      <c r="C91" s="18"/>
       <c r="D91" s="11"/>
     </row>
     <row r="92" spans="3:7" ht="15.6">
-      <c r="C92" s="19"/>
+      <c r="C92" s="18"/>
       <c r="D92" s="11"/>
     </row>
     <row r="93" spans="3:7" ht="15.6">
-      <c r="C93" s="19"/>
+      <c r="C93" s="18"/>
       <c r="D93" s="11"/>
     </row>
     <row r="94" spans="3:7" ht="15.6">
-      <c r="C94" s="19"/>
+      <c r="C94" s="18"/>
       <c r="D94" s="11"/>
     </row>
     <row r="95" spans="3:7" ht="15.6">
-      <c r="C95" s="19"/>
+      <c r="C95" s="18"/>
       <c r="D95" s="11"/>
     </row>
   </sheetData>
@@ -7465,9 +9561,10 @@
     <hyperlink ref="H4" r:id="rId22"/>
     <hyperlink ref="H3" r:id="rId23"/>
     <hyperlink ref="H2" r:id="rId24"/>
+    <hyperlink ref="H26:H61" r:id="rId25" display="TesT@gmaul.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId25"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
 
@@ -7476,12 +9573,12 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" style="20" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
     <col min="6" max="6" width="31.33203125" customWidth="1"/>
@@ -7490,7 +9587,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
@@ -7522,7 +9619,7 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>254</v>
       </c>
       <c r="B2" t="s">
@@ -7531,16 +9628,16 @@
       <c r="C2" t="s">
         <v>190</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>195</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="19" t="s">
         <v>252</v>
       </c>
       <c r="H2" t="s">
@@ -7554,7 +9651,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>253</v>
       </c>
       <c r="B3" t="s">
@@ -7563,16 +9660,16 @@
       <c r="C3" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>528</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>544</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>496</v>
       </c>
       <c r="H3" t="s">
@@ -7586,7 +9683,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>497</v>
       </c>
       <c r="B4" t="s">
@@ -7595,16 +9692,16 @@
       <c r="C4" t="s">
         <v>516</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>529</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>545</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="19" t="s">
         <v>191</v>
       </c>
       <c r="H4" t="s">
@@ -7615,7 +9712,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>498</v>
       </c>
       <c r="B5" t="s">
@@ -7624,16 +9721,16 @@
       <c r="C5" t="s">
         <v>517</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="20" t="s">
         <v>530</v>
       </c>
       <c r="E5" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="20" t="s">
         <v>546</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="19" t="s">
         <v>191</v>
       </c>
       <c r="H5" t="s">
@@ -7644,7 +9741,7 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>499</v>
       </c>
       <c r="B6" t="s">
@@ -7653,16 +9750,16 @@
       <c r="C6" t="s">
         <v>519</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>531</v>
       </c>
       <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>547</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="19" t="s">
         <v>191</v>
       </c>
       <c r="H6" t="s">
@@ -7673,7 +9770,7 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>500</v>
       </c>
       <c r="B7" t="s">
@@ -7682,16 +9779,16 @@
       <c r="C7" t="s">
         <v>518</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>532</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="20" t="s">
         <v>548</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>191</v>
       </c>
       <c r="H7" t="s">
@@ -7702,7 +9799,7 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>501</v>
       </c>
       <c r="B8" t="s">
@@ -7711,16 +9808,16 @@
       <c r="C8" t="s">
         <v>520</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="20" t="s">
         <v>533</v>
       </c>
       <c r="E8" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="20" t="s">
         <v>549</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="19" t="s">
         <v>191</v>
       </c>
       <c r="H8" t="s">
@@ -7731,7 +9828,7 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>502</v>
       </c>
       <c r="B9" t="s">
@@ -7740,16 +9837,16 @@
       <c r="C9" t="s">
         <v>286</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>534</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="20" t="s">
         <v>550</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="19" t="s">
         <v>191</v>
       </c>
       <c r="H9" t="s">
@@ -7760,7 +9857,7 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>503</v>
       </c>
       <c r="B10" t="s">
@@ -7769,16 +9866,16 @@
       <c r="C10" t="s">
         <v>521</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>535</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="20" t="s">
         <v>551</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="19" t="s">
         <v>191</v>
       </c>
       <c r="H10" t="s">
@@ -7789,7 +9886,7 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>504</v>
       </c>
       <c r="B11" t="s">
@@ -7798,16 +9895,16 @@
       <c r="C11" t="s">
         <v>522</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="20" t="s">
         <v>536</v>
       </c>
       <c r="E11" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="20" t="s">
         <v>552</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="19" t="s">
         <v>191</v>
       </c>
       <c r="H11" t="s">
@@ -7818,7 +9915,7 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>505</v>
       </c>
       <c r="B12" t="s">
@@ -7827,16 +9924,16 @@
       <c r="C12" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="20" t="s">
         <v>537</v>
       </c>
       <c r="E12" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="20" t="s">
         <v>553</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="19" t="s">
         <v>191</v>
       </c>
       <c r="H12" t="s">
@@ -7847,7 +9944,7 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>506</v>
       </c>
       <c r="B13" t="s">
@@ -7856,16 +9953,16 @@
       <c r="C13" t="s">
         <v>523</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="20" t="s">
         <v>538</v>
       </c>
       <c r="E13" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="20" t="s">
         <v>554</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="19" t="s">
         <v>191</v>
       </c>
       <c r="H13" t="s">
@@ -7876,7 +9973,7 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>507</v>
       </c>
       <c r="B14" t="s">
@@ -7885,16 +9982,16 @@
       <c r="C14" t="s">
         <v>524</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="20" t="s">
         <v>539</v>
       </c>
       <c r="E14" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="20" t="s">
         <v>555</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="19" t="s">
         <v>191</v>
       </c>
       <c r="H14" t="s">
@@ -7905,7 +10002,7 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="20" t="s">
         <v>508</v>
       </c>
       <c r="B15" t="s">
@@ -7914,16 +10011,16 @@
       <c r="C15" t="s">
         <v>518</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="20" t="s">
         <v>540</v>
       </c>
       <c r="E15" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="20" t="s">
         <v>556</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="19" t="s">
         <v>191</v>
       </c>
       <c r="H15" t="s">
@@ -7934,7 +10031,7 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>509</v>
       </c>
       <c r="B16" t="s">
@@ -7943,16 +10040,16 @@
       <c r="C16" t="s">
         <v>525</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="20" t="s">
         <v>541</v>
       </c>
       <c r="E16" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="20" t="s">
         <v>557</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="19" t="s">
         <v>191</v>
       </c>
       <c r="H16" t="s">
@@ -7963,7 +10060,7 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>510</v>
       </c>
       <c r="B17" t="s">
@@ -7972,16 +10069,16 @@
       <c r="C17" t="s">
         <v>526</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="20" t="s">
         <v>542</v>
       </c>
       <c r="E17" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="20" t="s">
         <v>558</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="19" t="s">
         <v>191</v>
       </c>
       <c r="H17" t="s">
@@ -7992,7 +10089,7 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="20" t="s">
         <v>511</v>
       </c>
       <c r="B18" t="s">
@@ -8001,16 +10098,16 @@
       <c r="C18" t="s">
         <v>527</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="20" t="s">
         <v>543</v>
       </c>
       <c r="E18" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="20" t="s">
         <v>559</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="19" t="s">
         <v>191</v>
       </c>
       <c r="H18" t="s">
@@ -8021,9 +10118,7 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="F21" s="21" t="s">
-        <v>560</v>
-      </c>
+      <c r="F21" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
